--- a/biology/Zoologie/Grimpar_à_menton_blanc/Grimpar_à_menton_blanc.xlsx
+++ b/biology/Zoologie/Grimpar_à_menton_blanc/Grimpar_à_menton_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_menton_blanc</t>
+          <t>Grimpar_à_menton_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocincla merula
 Le Grimpar à menton blanc (Dendrocincla merula) est une espèce d'oiseaux de la famille des Furnariidae. Son aire s'étend à travers l'Amazonie et le plateau des Guyanes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_menton_blanc</t>
+          <t>Grimpar_à_menton_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dendrocincla merula a été décrite pour la première fois en 1820 par le zoologiste allemand Martin Lichtenstein (1780-1857) sous le protonyme Dendrocolaptes merula[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dendrocincla merula a été décrite pour la première fois en 1820 par le zoologiste allemand Martin Lichtenstein (1780-1857) sous le protonyme Dendrocolaptes merula,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_menton_blanc</t>
+          <t>Grimpar_à_menton_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Dendrocincla merula bartletti Chubb, C, 1919
 sous-espèce Dendrocincla merula merula (Lichtenstein, MHK, 1820)
 sous-espèce Dendrocincla merula obidensis Todd, 1948
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpar_%C3%A0_menton_blanc</t>
+          <t>Grimpar_à_menton_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Lichtenstein, « Die Gattung Dendrocolaptes », Abhandlungen der physikalischen Klasse der Königlich-Preussischen Akademie der Wissenschaften, Berlin, Realschul-Buchhandlung, vol. 1818-1819,‎ 1820, p. 197–210 (lire en ligne)</t>
         </is>
